--- a/course_info/MFG291ClassList.xlsx
+++ b/course_info/MFG291ClassList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fedd740b53416be3/Courses/MFG291/291published/course_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{02557843-6990-4BED-9B37-01DC5F8B1E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1219575-E51F-4D8A-98A5-1A7A84406B76}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{02557843-6990-4BED-9B37-01DC5F8B1E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94E6DAB2-9F1F-41BE-A1E9-0E184149310B}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19170" yWindow="1170" windowWidth="13500" windowHeight="20715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MFG291" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>First name</t>
   </si>
@@ -130,17 +130,55 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Team D</t>
+  </si>
+  <si>
+    <t>Team A</t>
+  </si>
+  <si>
+    <t>Team C</t>
+  </si>
+  <si>
+    <t>Team B</t>
+  </si>
+  <si>
+    <t>Tech E</t>
+  </si>
+  <si>
+    <t>Team E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,15 +201,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -210,16 +253,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F683F053-3196-4923-A9ED-109299B01643}" name="Table145" displayName="Table145" ref="A1:D13" totalsRowCount="1" headerRowDxfId="7">
-  <autoFilter ref="A1:D12" xr:uid="{2FD64C79-D0B5-4D13-B9D7-FFEF9D8D2295}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D12">
-    <sortCondition ref="D1:D12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F683F053-3196-4923-A9ED-109299B01643}" name="Table145" displayName="Table145" ref="A1:E13" totalsRowCount="1" headerRowDxfId="8">
+  <autoFilter ref="A1:E12" xr:uid="{2FD64C79-D0B5-4D13-B9D7-FFEF9D8D2295}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
+    <sortCondition ref="A1:A12"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E6EB18CE-A22A-45D9-8B97-F70158F9A5DC}" name="First name" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{86192E4F-2770-40C9-A783-E17FD3282523}" name="Surname" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C958EFF7-E4F5-4DA1-B26F-5E0569B02326}" name="Email address" dataDxfId="4" totalsRowDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{B2D472FC-0B5F-4598-9EB0-870091770B07}" name="Column1" dataDxfId="3">
+  <tableColumns count="5">
+    <tableColumn id="5" xr3:uid="{D0B246DB-C637-4EDD-B66C-AEFFCE120837}" name="Team" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{E6EB18CE-A22A-45D9-8B97-F70158F9A5DC}" name="First name" dataDxfId="7" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{86192E4F-2770-40C9-A783-E17FD3282523}" name="Surname" dataDxfId="6" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C958EFF7-E4F5-4DA1-B26F-5E0569B02326}" name="Email address" dataDxfId="5" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{B2D472FC-0B5F-4598-9EB0-870091770B07}" name="Column1" dataDxfId="4">
       <calculatedColumnFormula>RAND()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -514,199 +558,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AA74C2-D31E-4DA0-97CB-C02B560FCBFE}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <f ca="1">RAND()</f>
+        <v>0.69866103171173344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <f ca="1">RAND()</f>
+        <v>0.21909745731335872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <f ca="1">RAND()</f>
+        <v>0.49859610349711103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1">
+        <f ca="1">RAND()</f>
+        <v>0.75074844784416483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1">
+        <f ca="1">RAND()</f>
+        <v>0.44482134721077227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1">
+        <f ca="1">RAND()</f>
+        <v>0.47014825641412428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.54048028964217509</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.59747540464272653</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.73154184612778828</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.81457330109844162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.80905238227476184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.18087184902405695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.33915844551857688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" s="1">
+        <f ca="1">RAND()</f>
+        <v>0.11897877659084588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1">
+        <f ca="1">RAND()</f>
+        <v>0.42956157694371178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1">
+        <f ca="1">RAND()</f>
+        <v>0.58789369208565478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.36362224360424533</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.76361876807619433</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.41653843323694484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11" s="1">
+        <f ca="1">RAND()</f>
+        <v>5.7398917663922022E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/course_info/MFG291ClassList.xlsx
+++ b/course_info/MFG291ClassList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fedd740b53416be3/Courses/MFG291/291published/course_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{02557843-6990-4BED-9B37-01DC5F8B1E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94E6DAB2-9F1F-41BE-A1E9-0E184149310B}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{02557843-6990-4BED-9B37-01DC5F8B1E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94963EEF-DDF9-4E8F-942D-B6DA138619F3}"/>
   <bookViews>
-    <workbookView xWindow="19170" yWindow="1170" windowWidth="13500" windowHeight="20715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MFG291" sheetId="4" r:id="rId1"/>
@@ -157,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -180,6 +180,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -198,17 +204,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -259,11 +268,11 @@
     <sortCondition ref="A1:A12"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{D0B246DB-C637-4EDD-B66C-AEFFCE120837}" name="Team" dataDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{E6EB18CE-A22A-45D9-8B97-F70158F9A5DC}" name="First name" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{86192E4F-2770-40C9-A783-E17FD3282523}" name="Surname" dataDxfId="6" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C958EFF7-E4F5-4DA1-B26F-5E0569B02326}" name="Email address" dataDxfId="5" totalsRowDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{B2D472FC-0B5F-4598-9EB0-870091770B07}" name="Column1" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{D0B246DB-C637-4EDD-B66C-AEFFCE120837}" name="Team" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{E6EB18CE-A22A-45D9-8B97-F70158F9A5DC}" name="First name" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{86192E4F-2770-40C9-A783-E17FD3282523}" name="Surname" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C958EFF7-E4F5-4DA1-B26F-5E0569B02326}" name="Email address" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{B2D472FC-0B5F-4598-9EB0-870091770B07}" name="Column1" dataDxfId="3">
       <calculatedColumnFormula>RAND()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -564,14 +573,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -588,7 +597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -598,15 +607,15 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.69866103171173344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E2:E11" ca="1" si="0">RAND()</f>
+        <v>0.38433511228313311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -616,15 +625,15 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.21909745731335872</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43118817949544119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -634,15 +643,15 @@
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.49859610349711103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78954631673212672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -652,15 +661,15 @@
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.75074844784416483</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25269409232623474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -670,15 +679,15 @@
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.44482134721077227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82236177051465953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -688,15 +697,15 @@
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.47014825641412428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1238198153026291E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -706,15 +715,15 @@
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.11897877659084588</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72240830219496266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -728,11 +737,11 @@
         <v>19</v>
       </c>
       <c r="E9" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.42956157694371178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43942107396198082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -742,15 +751,15 @@
       <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.58789369208565478</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.94252871973413899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -760,22 +769,22 @@
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="1">
-        <f ca="1">RAND()</f>
-        <v>5.7398917663922022E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.5999059176249393E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -783,10 +792,21 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{A7A658A5-627F-4CB7-B498-EFF7D56F1367}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{3A1FE680-5670-41EE-B55C-418E80F59288}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{DCA71A15-8297-47E4-94C6-72A8974CAB19}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{9999BAD1-CC84-422B-90FD-F822CE113627}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{AB4AE8C6-0F67-4059-968B-3A0F27C0D9C0}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{BFAE9679-6B0E-4251-A862-26909A1942E9}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{9B684F44-EA6B-484F-90B1-5204F4AD8ED8}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{03C569D7-B5E9-4C4D-863A-C8279A239C54}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{6886FAD3-66E7-4EC4-B9F3-95EECC1E9C54}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/course_info/MFG291ClassList.xlsx
+++ b/course_info/MFG291ClassList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fedd740b53416be3/Courses/MFG291/291published/course_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{02557843-6990-4BED-9B37-01DC5F8B1E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94963EEF-DDF9-4E8F-942D-B6DA138619F3}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{02557843-6990-4BED-9B37-01DC5F8B1E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{794AF95B-42DD-4608-BED1-4C8CA0970583}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MFG291" sheetId="4" r:id="rId1"/>
@@ -24,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -90,9 +91,6 @@
     <t>McMaster</t>
   </si>
   <si>
-    <t>mcmastc@mail.nmc.edu</t>
-  </si>
-  <si>
     <t>Manny</t>
   </si>
   <si>
@@ -126,9 +124,6 @@
     <t>Streeter</t>
   </si>
   <si>
-    <t>street53@mail.nmc.edu</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -151,6 +146,12 @@
   </si>
   <si>
     <t>Team E</t>
+  </si>
+  <si>
+    <t>mcmastc@nmc.edu</t>
+  </si>
+  <si>
+    <t>street53@nmc.edu</t>
   </si>
 </sst>
 </file>
@@ -570,7 +571,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -582,7 +583,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -594,12 +595,12 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -612,12 +613,12 @@
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:E11" ca="1" si="0">RAND()</f>
-        <v>0.38433511228313311</v>
+        <v>0.88518692314313263</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -630,12 +631,12 @@
       </c>
       <c r="E3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43118817949544119</v>
+        <v>0.21161651521990188</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -648,48 +649,48 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78954631673212672</v>
+        <v>0.97164314288418396</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25269409232623474</v>
+        <v>0.35633104780892844</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82236177051465953</v>
+        <v>0.44120948990948838</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -702,12 +703,12 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1238198153026291E-2</v>
+        <v>0.59621502662073755</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -720,12 +721,12 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72240830219496266</v>
+        <v>0.56718715462165681</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
@@ -733,48 +734,48 @@
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
+      <c r="D9" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43942107396198082</v>
+        <v>0.45775487542636739</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94252871973413899</v>
+        <v>0.34921842236625333</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5999059176249393E-2</v>
+        <v>0.74420845337934549</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -802,11 +803,12 @@
     <hyperlink ref="D8" r:id="rId7" xr:uid="{9B684F44-EA6B-484F-90B1-5204F4AD8ED8}"/>
     <hyperlink ref="D10" r:id="rId8" xr:uid="{03C569D7-B5E9-4C4D-863A-C8279A239C54}"/>
     <hyperlink ref="D11" r:id="rId9" xr:uid="{6886FAD3-66E7-4EC4-B9F3-95EECC1E9C54}"/>
+    <hyperlink ref="D9" r:id="rId10" xr:uid="{E0EBA8EA-299D-441D-BDED-BAEBB43E30C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>